--- a/biology/Médecine/Tumeur_cérébrale_primitive/Tumeur_cérébrale_primitive.xlsx
+++ b/biology/Médecine/Tumeur_cérébrale_primitive/Tumeur_cérébrale_primitive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tumeur_c%C3%A9r%C3%A9brale_primitive</t>
+          <t>Tumeur_cérébrale_primitive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue les tumeurs cérébrales primitives des métastases cérébrales (qui proviennent d'un cancer extra-cérébral). 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tumeur_c%C3%A9r%C3%A9brale_primitive</t>
+          <t>Tumeur_cérébrale_primitive</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les tumeurs primitives sont moins fréquentes que les métastases.
 Concernant les tumeurs primitives et de manière très générale :
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tumeur_c%C3%A9r%C3%A9brale_primitive</t>
+          <t>Tumeur_cérébrale_primitive</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plus souvent, une tumeur cérébrale se présente sous une des 3 formes suivantes :
 Déficit neurologique focal d'apparition subaiguë (c'est-à-dire d'apparition progressive)
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tumeur_c%C3%A9r%C3%A9brale_primitive</t>
+          <t>Tumeur_cérébrale_primitive</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Site de l'Association pour la Recherche sur les tumeurs cérébrales
  Portail de la médecine                     </t>
